--- a/data/000_allenamenti/000_TEMPLATE.xlsx
+++ b/data/000_allenamenti/000_TEMPLATE.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Documents/personale/U14F_blog_2223/data/000_allenamenti/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiapell/Documents/personale/PALLAVOLO/U14F_blog_2223/data/000_allenamenti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3334F7F1-B4AA-8C4B-B640-0CD4DACA58AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977FF9DF-51AB-6945-9BEB-4FC3068176BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="20" windowWidth="34560" windowHeight="21580" xr2:uid="{1BFBEE08-C1EF-1F48-9B18-291AE5124981}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{1BFBEE08-C1EF-1F48-9B18-291AE5124981}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Esercizio" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$101</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>PGS FOGLIZZESE</t>
   </si>
@@ -158,9 +159,6 @@
   </si>
   <si>
     <t>N:</t>
-  </si>
-  <si>
-    <t>Ciravolo</t>
   </si>
   <si>
     <t>O</t>
@@ -176,7 +174,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +184,20 @@
     </font>
     <font>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -212,7 +224,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -389,11 +401,177 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -425,31 +603,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,16 +615,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,7 +714,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>726722</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>165101</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -995,8 +1206,1063 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>191407</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>330202</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39007</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94BC248-6431-584C-86A3-F973FC375769}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="191407" y="39007"/>
+          <a:ext cx="1789795" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>405493</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>39915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>544288</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>39915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA0C4B16-9208-824A-9F87-7E1C41F6E579}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2056493" y="39915"/>
+          <a:ext cx="1789795" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>634092</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>772887</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>36286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9C49E7-0826-764A-99C7-9ABA57DB6EB0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3936092" y="36286"/>
+          <a:ext cx="1789795" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>155121</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341995</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>155122</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1043CF28-35EE-9043-AAD8-91D847784E87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="1768021"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>156029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>556081</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>156030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F52068D-C9C1-5148-A08F-EA759E11F824}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2068286" y="1768929"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>645885</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>784680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5368F658-3019-5B4A-83BB-FF926A00C2DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947885" y="1765300"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166007</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341995</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89BCF039-9F6F-F345-8FFA-311124BEECF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="1778907"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166915</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>556081</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>166916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB24C0F-9DC1-DC45-952A-6484F56C7B79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2068286" y="1779815"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>645885</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>784680</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4856BC3-27A6-0F4D-A96B-AB8B18D9D13B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947885" y="1776186"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>115207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341995</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>115208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C77FCA90-47AD-324C-9CC7-83CCAAA43627}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="203200" y="3341007"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>417286</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>556081</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>116116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3E9602-9C5D-1B41-86F0-CFA20523E873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2068286" y="3341915"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>645885</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>784680</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>112487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A238E249-7676-9A4E-B675-793D4F3F22DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947885" y="3338286"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>115207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>354695</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>115208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B89F6F3-C875-DE4A-AF3D-ABC3CAA86EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="215900" y="4953907"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>429986</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>116115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>568781</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>116116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48D1E2E5-F763-764B-94FC-E6441B91E2A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2080986" y="4954815"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>645885</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>112486</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>784680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112487</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF31B216-0F03-6D42-8CC7-9BCADEBA4AAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947885" y="4951186"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>127907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>367395</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127908</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBA82D77-7C1A-C942-B5F6-816A0B6A3ECD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="6579507"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>442686</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>128815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581481</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>128816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{923121E7-8633-314B-BF0F-10D30418F9DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2093686" y="6580415"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>671285</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>810080</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125187</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB08697B-D60A-B84B-B6AC-FD57F17965A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3973285" y="6576786"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>26307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>265795</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>26308</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86C95EEC-D402-4646-8714-F55D23CCD8FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="127000" y="8294007"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>341086</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>479881</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>27216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F34196EB-1C10-9544-8CC8-CAB494921494}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1992086" y="8294915"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>569685</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>23586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>708480</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35E6AC6-0164-4448-8EDD-1606730E2B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3871685" y="8291286"/>
+          <a:ext cx="1789795" cy="1016001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1284,7 +2550,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1294,8 +2560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C5A359-32AD-8749-AF53-E139F7D1D684}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" showWhiteSpace="0" view="pageLayout" topLeftCell="A90" zoomScale="230" zoomScaleNormal="100" zoomScalePageLayoutView="230" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1325,16 +2591,16 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1355,10 +2621,10 @@
       <c r="F4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -1374,11 +2640,11 @@
         <v>40020</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="4"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -1394,941 +2660,931 @@
         <v>40086</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="6">
-        <v>40318</v>
+        <v>40241</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6">
-        <v>40241</v>
+        <v>39833</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D9" s="6">
-        <v>39833</v>
+        <v>40001</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="6">
-        <v>40001</v>
+        <v>39926</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D11" s="6">
-        <v>39926</v>
+        <v>39854</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D12" s="6">
-        <v>39854</v>
+        <v>40143</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6">
-        <v>40143</v>
+        <v>40002</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" s="6">
-        <v>40002</v>
+        <v>40526</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6">
-        <v>40526</v>
+        <v>39921</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="5">
-        <v>40</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="6">
-        <v>39921</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" ht="5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10" t="s">
+      <c r="E17" s="9"/>
+      <c r="F17" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:8" ht="21" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+    </row>
+    <row r="20" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="19"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="17"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="5"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="19"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="17"/>
       <c r="E37" s="7"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="19"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="17"/>
       <c r="E45" s="7"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="16"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="5"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="16"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="5"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="16"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="5"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="16"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="5"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="16"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="5"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="19"/>
+      <c r="B53" s="15"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="17"/>
       <c r="E53" s="7"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="5"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="16"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="5"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="16"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="5"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="5"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="16"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="5"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="16"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="5"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="16"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="19"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="16"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="5"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="16"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="5"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="5"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="5"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="16"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="5"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="16"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="16"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="5"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="19"/>
+      <c r="B69" s="15"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="17"/>
       <c r="E69" s="7"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="16"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="5"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="5"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="16"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="5"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="16"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="5"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="16"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="5"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="16"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="5"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="19"/>
+      <c r="B77" s="15"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="17"/>
       <c r="E77" s="7"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="16"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="5"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="5"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="16"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="5"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="5"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="5"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="16"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="16"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A85" s="23"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="20"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A86" s="24"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="13"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="22"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="23"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A87" s="24"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="25"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="13"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="22"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="23"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A88" s="24"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="25"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="13"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="23"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="25"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="25"/>
-      <c r="G89" s="25"/>
-      <c r="H89" s="13"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="22"/>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="23"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A90" s="24"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="25"/>
-      <c r="E90" s="25"/>
-      <c r="F90" s="25"/>
-      <c r="G90" s="25"/>
-      <c r="H90" s="13"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+      <c r="E90" s="22"/>
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="23"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A91" s="24"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="25"/>
-      <c r="H91" s="13"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A92" s="24"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="25"/>
-      <c r="H92" s="13"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+      <c r="E92" s="22"/>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="23"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A93" s="24"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="25"/>
-      <c r="E93" s="25"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="25"/>
-      <c r="H93" s="13"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+      <c r="E93" s="22"/>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="23"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="25"/>
-      <c r="H94" s="13"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+      <c r="E94" s="22"/>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="23"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="24"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="25"/>
-      <c r="H95" s="13"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+      <c r="E95" s="22"/>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="23"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A96" s="24"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="25"/>
-      <c r="H96" s="13"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+      <c r="E96" s="22"/>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="23"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A97" s="24"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="25"/>
-      <c r="E97" s="25"/>
-      <c r="F97" s="25"/>
-      <c r="G97" s="25"/>
-      <c r="H97" s="13"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+      <c r="E97" s="22"/>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="23"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" s="26"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="15"/>
+      <c r="A98" s="24"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E16">
-    <sortCondition ref="B5:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E15">
+    <sortCondition ref="B5:B15"/>
   </sortState>
   <customSheetViews>
     <customSheetView guid="{6A7AA631-B972-764B-8F62-3F58B4C05DDE}">
@@ -2336,25 +3592,56 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="79">
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A85:H98"/>
     <mergeCell ref="A23:H23"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A21:H21"/>
-    <mergeCell ref="A22:H22"/>
-    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="F77:H83"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="F69:H75"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="F61:H67"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="F53:H59"/>
+    <mergeCell ref="B54:E54"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="B56:E56"/>
+    <mergeCell ref="B57:E57"/>
+    <mergeCell ref="B58:E58"/>
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="F45:H51"/>
+    <mergeCell ref="B46:E46"/>
+    <mergeCell ref="B47:E47"/>
+    <mergeCell ref="B48:E48"/>
+    <mergeCell ref="B49:E49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F37:H43"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="F29:H35"/>
     <mergeCell ref="A24:H24"/>
     <mergeCell ref="A25:H25"/>
@@ -2366,58 +3653,226 @@
     <mergeCell ref="B34:E34"/>
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F37:H43"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="F45:H51"/>
-    <mergeCell ref="B46:E46"/>
-    <mergeCell ref="B47:E47"/>
-    <mergeCell ref="B48:E48"/>
-    <mergeCell ref="B49:E49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F53:H59"/>
-    <mergeCell ref="B54:E54"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="B56:E56"/>
-    <mergeCell ref="B57:E57"/>
-    <mergeCell ref="B58:E58"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="F61:H67"/>
-    <mergeCell ref="B62:E62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="F69:H75"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="F77:H83"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="B79:E79"/>
-    <mergeCell ref="B80:E80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="A85:H98"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A21:H21"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="10"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F405B36E-A1D3-AD4B-A16B-9FE5A1516BFA}">
+  <dimension ref="A6:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="37"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="37"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="33"/>
+    </row>
+    <row r="18" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="39"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+    </row>
+    <row r="24" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="37"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="33"/>
+    </row>
+    <row r="27" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+    </row>
+    <row r="33" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="37"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="33"/>
+    </row>
+    <row r="36" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+    </row>
+    <row r="42" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="37"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="33"/>
+    </row>
+    <row r="45" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="52" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="37"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="28"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28"/>
+      <c r="G53" s="29"/>
+    </row>
+    <row r="54" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="33"/>
+    </row>
+    <row r="55" spans="1:7" s="30" customFormat="1" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="39"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A43:A45"/>
+    <mergeCell ref="A53:A55"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{8fcaca1c-04b8-40d7-944e-e72f4105afe1}" enabled="1" method="Standard" siteId="{a9c0bc09-8b46-4206-9351-2ba12fb4a5c0}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>